--- a/database/Empleados.UY.xlsx
+++ b/database/Empleados.UY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\InnovationLab2019\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789B778-BE4E-4554-9CD2-23491B7F97C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39D28A-B92C-435A-AE38-9C4388ECD9A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{77406EC5-31F3-4B7A-B386-A344DA39DCC7}"/>
   </bookViews>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F6A38B-9221-46B4-8760-38B60FB5A75C}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="T1" s="2" t="str">
         <f ca="1">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, '", M1, "', '", N1, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 9859, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pedro', 'Minetti', NULL, NULL, 38773, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V1" s="2" t="str">
         <f>CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", M1, "' AND [P].[LastName] = '", N1, "' AND [PR].[Code] = '", R1, "'")</f>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="T2" s="2" t="str">
         <f t="shared" ref="T2:T65" ca="1" si="6">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, '", M2, "', '", N2, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 86411, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Luciano', 'Deluca', NULL, NULL, 86324, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V2" s="2" t="str">
         <f t="shared" ref="V2:V65" si="7">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", M2, "' AND [P].[LastName] = '", N2, "' AND [PR].[Code] = '", R2, "'")</f>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="T3" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 33444, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Eduardo', 'Ducer', NULL, NULL, 50736, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V3" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="T4" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 41441, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Rodrigo', 'Valdez', NULL, NULL, 11195, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V4" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="T5" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 50092, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Valentín', 'Gadola', NULL, NULL, 7358, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V5" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="T6" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 38538, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Martín', 'Acosta', NULL, NULL, 69306, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V6" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 99486, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Santiago', 'Ferreiro', NULL, NULL, 83358, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V7" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="T8" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 35033, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Adrián', 'Lopez', NULL, NULL, 1017, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V8" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="T9" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 5779, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Giovanina', 'Chirione', NULL, NULL, 40932, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V9" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="T10" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 99650, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yony', 'Gómez', NULL, NULL, 8759, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V10" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="T11" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 25851, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Aniela', 'Amy', NULL, NULL, 33811, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V11" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="T12" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 78002, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alberto', 'Da Cunha', NULL, NULL, 16606, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V12" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="T13" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 75743, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'Trujillo', NULL, NULL, 12410, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V13" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="T14" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 39791, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Da Silva', NULL, NULL, 2163, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V14" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="T15" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 82083, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camila', 'Sorio', NULL, NULL, 41658, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V15" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="T16" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 22824, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Horacio', 'Blanco', NULL, NULL, 76808, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V16" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="T17" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 99429, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Gastón', 'Aroztegui', NULL, NULL, 40088, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V17" s="2" t="str">
         <f t="shared" si="7"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="T18" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 33349, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Jimena', 'Irigaray', NULL, NULL, 8162, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V18" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="T19" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 27278, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolás', 'Lasarte', NULL, NULL, 76064, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V19" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="T20" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 39918, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolás', 'Gómez', NULL, NULL, 89199, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V20" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="T21" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 51910, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernado', 'Olmos', NULL, NULL, 89557, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V21" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="T22" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 79685, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan', 'Estrada', NULL, NULL, 7592, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V22" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="T23" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 83173, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ruben', 'Bracco', NULL, NULL, 6717, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V23" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="T24" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 52409, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Daniel', 'Cabrera', NULL, NULL, 88433, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V24" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="T25" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 17712, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Adrián', 'Belen', NULL, NULL, 18410, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V25" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="T26" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 43138, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'García', NULL, NULL, 58112, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V26" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="T27" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 61703, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Sebastian', 'Queirolo', NULL, NULL, 74639, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V27" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="T28" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 80327, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alejandro', 'Latchinian', NULL, NULL, 69962, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V28" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="T29" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 18912, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Beerbal', 'Abdulkhader', NULL, NULL, 10101, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V29" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="T30" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 18437, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ariel', 'Sisro', NULL, NULL, 3362, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V30" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="T31" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 43698, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Damián', 'Pereira', NULL, NULL, 17579, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V31" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="T32" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 18779, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Queirolo', NULL, NULL, 47308, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V32" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="T33" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 75868, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Bruno', 'Candia', NULL, NULL, 91182, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V33" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="T34" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 63179, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan', 'Aguerre', NULL, NULL, 63404, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V34" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="T35" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 17596, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'García', NULL, NULL, 84075, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V35" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="T36" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 51606, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Martin', 'Caetano', NULL, NULL, 66622, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V36" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="T37" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 81315, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Roberto', 'Assandri', NULL, NULL, 45482, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V37" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="T38" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 32125, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alejandro', 'Capece', NULL, NULL, 18699, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V38" s="2" t="str">
         <f t="shared" si="7"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="T39" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 77684, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Hernán', 'Rumbo', NULL, NULL, 88945, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V39" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="T40" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 24584, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alfonso', 'Rodriguez', NULL, NULL, 3198, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V40" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="T41" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 67577, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Javier', 'Calero', NULL, NULL, 82174, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V41" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="T42" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 36926, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Maedo', NULL, NULL, 76721, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V42" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="T43" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 10248, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pedro', 'Tournier', NULL, NULL, 8800, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V43" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="T44" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 41063, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marcos', 'Guimaraes', NULL, NULL, 90087, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V44" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="T45" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 99847, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Assandri', NULL, NULL, 40742, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V45" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="T46" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 10052, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Federico', 'Canet', NULL, NULL, 99192, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V46" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="T47" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 14253, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Raúl', 'Fossemale', NULL, NULL, 12850, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V47" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="T48" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 39225, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Nieves', NULL, NULL, 73110, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V48" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="T49" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 48263, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Silvia', 'Derkoyorikian', NULL, NULL, 56677, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V49" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="T50" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 3571, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Loureiro', NULL, NULL, 44154, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V50" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="T51" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 14756, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Mauricio', 'Mora', NULL, NULL, 70028, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V51" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 61281, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Cawen', NULL, NULL, 42177, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V52" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="T53" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 92638, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Javier', 'Barrios', NULL, NULL, 45876, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="T54" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 86537, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marcelo', 'Zepedeo', NULL, NULL, 89024, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="T55" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 70480, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Marlon', 'González', NULL, NULL, 85689, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V55" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="T56" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 75887, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernando', 'Stromillo', NULL, NULL, 88467, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V56" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="T57" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 37545, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yanara', 'Valdes', NULL, NULL, 42231, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V57" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="T58" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 86183, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alberto', 'Hernández', NULL, NULL, 45428, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V58" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="T59" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 13138, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Yago', 'Auza', NULL, NULL, 6955, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V59" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 59694, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Octavio', 'Garbarino', NULL, NULL, 10197, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V60" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="T61" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 71201, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Nicolas', 'Mañay', NULL, NULL, 752, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V61" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="T62" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 67198, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camila', 'Roji', NULL, NULL, 14949, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V62" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="T63" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 18359, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Delia', 'Alvarez', NULL, NULL, 39027, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V63" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="T64" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 79054, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Eugenia', 'Pais', NULL, NULL, 34482, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V64" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4122,11 +4122,11 @@
         <v>Andrada</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" ref="J65:J85" si="9">IF(G65="", D65, G65)</f>
+        <f t="shared" ref="J65:J69" si="9">IF(G65="", D65, G65)</f>
         <v>Victoria</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f t="shared" ref="K65:K85" si="10">IF(H65="", E65, H65)</f>
+        <f t="shared" ref="K65:K69" si="10">IF(H65="", E65, H65)</f>
         <v>Andrada</v>
       </c>
       <c r="M65" s="2" t="s">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="T65" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 90051, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Victoria', 'Andrada', NULL, NULL, 51329, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V65" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="T66" s="2" t="str">
         <f t="shared" ref="T66:T85" ca="1" si="14">CONCATENATE("INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, '", M66, "', '", N66, "', NULL, NULL, ", RANDBETWEEN(1, 100000), ", 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'")</f>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 48182, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Andrés', 'Bores', NULL, NULL, 77349, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V66" s="2" t="str">
         <f t="shared" ref="V66:V85" si="15">CONCATENATE("INSERT INTO [dbo].[CandidateCandidateRole] ([CandidateId], [CandidateRoleId], [StartDate], [EndDate]) SELECT [P].[Id], [PR].[Id], '2015-01-01', NULL FROM [dbo].[Candidate] AS P, [dbo].[CandidateRole] AS [PR] WHERE [P].[FirstName] = '", M66, "' AND [P].[LastName] = '", N66, "' AND [PR].[Code] = '", R66, "'")</f>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="T67" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 2272, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Leonardo', 'Mendizabal', NULL, NULL, 66858, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V67" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="T68" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 82289, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Mathías', 'Rodríguez', NULL, NULL, 31730, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V68" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 39503, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Hugo', 'Ocampo', NULL, NULL, 78365, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V69" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="T70" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 611, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'María Julia', 'Etcheverry', NULL, NULL, 86408, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V70" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="T71" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 92373, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Valeria', 'Rotunno', NULL, NULL, 60358, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V71" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="T72" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 23406, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'William', 'Claro', NULL, NULL, 27623, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V72" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="T73" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 8149, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Rodrigo', 'Alvarez', NULL, NULL, 16880, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V73" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="T74" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 13459, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Uriarte', NULL, NULL, 34546, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V74" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="T75" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 11875, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Alvaro', 'Restuccia', NULL, NULL, 68656, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V75" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="T76" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 36353, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Ignacio', 'Secco', NULL, NULL, 33933, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V76" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 12518, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Fernando', 'Cañas', NULL, NULL, 84323, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V77" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="T78" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 96777, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'María Noel', 'Mosqueira', NULL, NULL, 56259, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V78" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="T79" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 59886, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Camilo', 'Gomez', NULL, NULL, 7234, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V79" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="T80" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 90107, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Raidel', 'Gonzalez', NULL, NULL, 96943, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V80" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="T81" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 58150, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Malvina', 'Jaume', NULL, NULL, 2719, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V81" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="T82" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 58714, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Gerardo', 'Barbitta', NULL, NULL, 54519, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V82" s="2" t="str">
         <f t="shared" si="15"/>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="T83" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 54114, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Pablo', 'Gus', NULL, NULL, 80084, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V83" s="2" t="str">
         <f t="shared" si="15"/>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="T84" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 52665, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Jorge', 'Jova', NULL, NULL, 75548, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V84" s="2" t="str">
         <f t="shared" si="15"/>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="T85" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 97427, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
+        <v>INSERT INTO [dbo].[Candidate] ([DeliveryUnitId], [RelationType], [FirstName], [LastName], [DocType], [DocNumber], [EmployeeNumber], [InBench]) SELECT [Id], 1, 'Juan Manuel', 'Fagundez', NULL, NULL, 69644, 0 FROM [dbo].[DeliveryUnit] WHERE [Code] = 'MVD'</v>
       </c>
       <c r="V85" s="2" t="str">
         <f t="shared" si="15"/>
@@ -5105,6 +5105,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0B7B36A0A09E458158046810038137" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bafe724513c9d1f26c4bf7dd6ed8389c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="03dca61d-4bd9-44e4-bb28-2e245975cefa" xmlns:ns4="58628ce2-31db-48c9-83e7-9ec9dce11b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eeb2709ac0754591c2d8728cadbcbe3" ns3:_="" ns4:_="">
     <xsd:import namespace="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
@@ -5313,12 +5319,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6844CB-EC2C-4324-A58D-DA98579E50A5}">
   <ds:schemaRefs>
@@ -5328,6 +5328,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E2396B7-CB8B-47A8-AF89-5D1D70206F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5344,21 +5361,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D2B1C0-C05E-43DF-9662-E26ED0AB0738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58628ce2-31db-48c9-83e7-9ec9dce11b86"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="03dca61d-4bd9-44e4-bb28-2e245975cefa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>